--- a/vaja31/podatki.xlsx
+++ b/vaja31/podatki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Documents/Šola/Faks/Fizikalni Prakitkum 1/vaja31/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC6161D-543C-A843-8F62-B8865F90A1F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DEA960-3176-A949-A180-2F39C3D5A1C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1120" windowWidth="28040" windowHeight="17440" xr2:uid="{554D120B-2E32-8B44-A851-1CE82C2D016F}"/>
+    <workbookView xWindow="1180" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{554D120B-2E32-8B44-A851-1CE82C2D016F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -777,6 +777,35 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Frekvenca</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [hz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -869,6 +898,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Relativna</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> amplituda</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1582,16 +1641,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>186690</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>173990</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>328788</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>690738</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1918,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CF4F32-DADB-1345-8146-DB880C1293AD}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/vaja31/podatki.xlsx
+++ b/vaja31/podatki.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Documents/Šola/Faks/Fizikalni Prakitkum 1/vaja31/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Documents/Šola/Faks/Fizikalni Praktikum 1/vaja31/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DEA960-3176-A949-A180-2F39C3D5A1C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E933AB-D52E-C144-8E43-36313D94E57C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{554D120B-2E32-8B44-A851-1CE82C2D016F}"/>
+    <workbookView xWindow="1180" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{554D120B-2E32-8B44-A851-1CE82C2D016F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1 del" sheetId="2" r:id="rId1"/>
+    <sheet name="2 del" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Frekvenca</t>
   </si>
@@ -41,12 +42,36 @@
   <si>
     <t>Duseno</t>
   </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>Meritev</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Omegad</t>
+  </si>
+  <si>
+    <t>Omega/omega0 [neduseno]</t>
+  </si>
+  <si>
+    <t>Omega/omega0 [duseno]</t>
+  </si>
+  <si>
+    <t>B/B0 [neduseno]</t>
+  </si>
+  <si>
+    <t>B/B0 [duseno]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,6 +81,14 @@
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,7 +217,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'2 del'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -216,7 +250,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>'2 del'!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -336,7 +370,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$38</c:f>
+              <c:f>'2 del'!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -466,7 +500,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'2 del'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -499,7 +533,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>'2 del'!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -619,7 +653,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$38</c:f>
+              <c:f>'2 del'!$C$2:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1641,16 +1675,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>328788</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14129</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292190</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>690738</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7780</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>660936</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>179373</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1974,16 +2008,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CF4F32-DADB-1345-8146-DB880C1293AD}">
-  <dimension ref="A1:C38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B74E9FE-A137-604E-96EC-26A2516C51A0}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4" t="e">
+        <f>B$2/(2*3.14159*A4)*LN(B$4/B4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>11.5</v>
+      </c>
+      <c r="C5">
+        <v>11.5</v>
+      </c>
+      <c r="D5">
+        <f>B$2/(2*3.14159*A5)*LN(B$4/B5)</f>
+        <v>7.8581679747770444E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>A5+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D5:D9" si="0">B$2/(2*3.14159*A6)*LN(B$4/B6)</f>
+        <v>8.8251507056967049E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" ref="A7:A9" si="1">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>6.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>9.2299304025746126E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>5.5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>9.3309287089334211E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.10009056086005411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CF4F32-DADB-1345-8146-DB880C1293AD}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1993,8 +2169,20 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -2004,8 +2192,24 @@
       <c r="C2">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <f>A2*2.51</f>
+        <v>0.251</v>
+      </c>
+      <c r="F2">
+        <f>B2/$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>A2*2.56</f>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="I2">
+        <f>C2/$C$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -2015,8 +2219,24 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f t="shared" ref="E3:E38" si="0">A3*2.51</f>
+        <v>0.502</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F38" si="1">B3/$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H38" si="2">A3*2.56</f>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I38" si="3">C3/$C$2</f>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -2026,8 +2246,24 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.75299999999999989</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.31</v>
       </c>
@@ -2037,8 +2273,24 @@
       <c r="C5">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.7780999999999999</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.79359999999999997</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.32</v>
       </c>
@@ -2048,8 +2300,24 @@
       <c r="C6">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.80319999999999991</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.33</v>
       </c>
@@ -2059,8 +2327,24 @@
       <c r="C7">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.82829999999999993</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.84480000000000011</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>A7+0.01</f>
         <v>0.34</v>
@@ -2071,10 +2355,26 @@
       <c r="C8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.85339999999999994</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.87040000000000006</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" ref="A9:A12" si="0">A8+0.01</f>
+        <f t="shared" ref="A9:A12" si="4">A8+0.01</f>
         <v>0.35000000000000003</v>
       </c>
       <c r="B9">
@@ -2083,10 +2383,26 @@
       <c r="C9">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.87850000000000006</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.875</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.89600000000000013</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.36000000000000004</v>
       </c>
       <c r="B10">
@@ -2095,10 +2411,26 @@
       <c r="C10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.90360000000000007</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2.125</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.92160000000000009</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.37000000000000005</v>
       </c>
       <c r="B11">
@@ -2107,10 +2439,26 @@
       <c r="C11">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.92870000000000008</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.94720000000000015</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.38000000000000006</v>
       </c>
       <c r="B12">
@@ -2119,8 +2467,24 @@
       <c r="C12">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.95380000000000009</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>3.125</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.97280000000000022</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.38500000000000001</v>
       </c>
@@ -2130,8 +2494,24 @@
       <c r="C13">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.96634999999999993</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.39</v>
       </c>
@@ -2141,8 +2521,24 @@
       <c r="C14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.99840000000000007</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.39500000000000002</v>
       </c>
@@ -2152,8 +2548,24 @@
       <c r="C15">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.99144999999999994</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>5.25</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1.0112000000000001</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>3.8571428571428572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.4</v>
       </c>
@@ -2163,8 +2575,24 @@
       <c r="C16">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.004</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>4.875</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>1.024</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>A16+0.01</f>
         <v>0.41000000000000003</v>
@@ -2175,10 +2603,26 @@
       <c r="C17">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.0290999999999999</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>1.0496000000000001</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" ref="A18:A30" si="1">A17+0.01</f>
+        <f t="shared" ref="A18:A30" si="5">A17+0.01</f>
         <v>0.42000000000000004</v>
       </c>
       <c r="B18">
@@ -2187,10 +2631,26 @@
       <c r="C18">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.0542</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>1.0752000000000002</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.43000000000000005</v>
       </c>
       <c r="B19">
@@ -2199,10 +2659,26 @@
       <c r="C19">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.0792999999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>1.1008000000000002</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.44000000000000006</v>
       </c>
       <c r="B20">
@@ -2211,10 +2687,26 @@
       <c r="C20">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1.1044</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>1.1264000000000001</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.45000000000000007</v>
       </c>
       <c r="B21">
@@ -2223,10 +2715,26 @@
       <c r="C21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1.1295000000000002</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>1.1520000000000001</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.46000000000000008</v>
       </c>
       <c r="B22">
@@ -2235,10 +2743,26 @@
       <c r="C22">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.1546000000000001</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>1.1776000000000002</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.47000000000000008</v>
       </c>
       <c r="B23">
@@ -2247,10 +2771,26 @@
       <c r="C23">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1.1797000000000002</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>1.875</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>1.2032000000000003</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.48000000000000009</v>
       </c>
       <c r="B24">
@@ -2259,8 +2799,24 @@
       <c r="C24">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1.2048000000000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>1.2288000000000003</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>A24+0.01</f>
         <v>0.4900000000000001</v>
@@ -2271,10 +2827,26 @@
       <c r="C25">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1.2299000000000002</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>1.2544000000000002</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="B26">
@@ -2283,10 +2855,26 @@
       <c r="C26">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1.2550000000000001</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>1.2800000000000002</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.51000000000000012</v>
       </c>
       <c r="B27">
@@ -2295,10 +2883,26 @@
       <c r="C27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1.2801000000000002</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1.125</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>1.3056000000000003</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.52000000000000013</v>
       </c>
       <c r="B28">
@@ -2307,10 +2911,26 @@
       <c r="C28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1.3052000000000001</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>1.3312000000000004</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.53000000000000014</v>
       </c>
       <c r="B29">
@@ -2319,10 +2939,26 @@
       <c r="C29">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1.3303000000000003</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>1.3568000000000005</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.54000000000000015</v>
       </c>
       <c r="B30">
@@ -2331,8 +2967,24 @@
       <c r="C30">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1.3554000000000002</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>1.3824000000000003</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <f>A30+0.01</f>
         <v>0.55000000000000016</v>
@@ -2343,8 +2995,24 @@
       <c r="C31">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1.3805000000000003</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>1.4080000000000004</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <f>A31+0.01</f>
         <v>0.56000000000000016</v>
@@ -2355,8 +3023,24 @@
       <c r="C32">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1.4056000000000002</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>1.4336000000000004</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.57999999999999996</v>
       </c>
@@ -2366,8 +3050,24 @@
       <c r="C33">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1.4557999999999998</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>1.4847999999999999</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.6</v>
       </c>
@@ -2377,8 +3077,24 @@
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1.5059999999999998</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>1.536</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.65</v>
       </c>
@@ -2388,8 +3104,24 @@
       <c r="C35">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.6315</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>1.6640000000000001</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.75</v>
       </c>
@@ -2399,8 +3131,24 @@
       <c r="C36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1.8824999999999998</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>1.92</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.85</v>
       </c>
@@ -2410,8 +3158,24 @@
       <c r="C37">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>2.1334999999999997</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2420,6 +3184,22 @@
       </c>
       <c r="C38">
         <v>0.25</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>2.56</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
   </sheetData>
